--- a/public/templates/NHWA_Module_3.xlsx
+++ b/public/templates/NHWA_Module_3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\NHWA\Originals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7364344-FFBC-4503-A1F3-68601D9D6B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DNdhLaiJYJ2ZbD09elSFCyIbsfmsCvuMR7TLpKKqcWr+WHl4whasq0ZZ0A0eyWjFnXr15kGsuJqYxaWBtC5Tlw==" workbookSaltValue="6xngd8mX30SibXiPrW6QDg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A467AA-1D46-4723-912D-E8ED25B57169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hSTKI/Kp4ZNeltw23FK/qSJ4IP1EgotV+JfeQVdh4yL1WlROhPptf/kQIRKuiu2N/Uq0Rm59grAA/Oi+aswdHA==" workbookSaltValue="XnyCBAHZzk/HLZuhAG6zhw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regulation" sheetId="1" r:id="rId1"/>
     <sheet name="Acreditation" sheetId="5" r:id="rId2"/>
-    <sheet name="Lifelong Learning " sheetId="6" r:id="rId3"/>
+    <sheet name="Lifelong Learning" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -2863,12 +2863,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -9242,22 +9242,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>840</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
@@ -9287,18 +9287,18 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
@@ -17855,42 +17855,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
       <c r="AT2" s="25" t="e">
         <f>Regulation!X2</f>
         <v>#N/A</v>
@@ -20731,42 +20731,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>743</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
       <c r="W2" s="25" t="e">
         <f>Regulation!X2</f>
         <v>#N/A</v>

--- a/public/templates/NHWA_Module_3.xlsx
+++ b/public/templates/NHWA_Module_3.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C53686-9DA1-4DEE-AD4D-422BFA3122E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="AHdlI7zTvRuvWypNRj6HEhR1EEk7N1BIOVKLVugfrnhvy6E9swYijAWU6mdAe8yBEXNlLQ2KY/dF1vNuVOQ0UQ==" workbookSaltValue="LlhVKL6l978C9TvP2Lghww==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82608B05-3298-43E0-9764-65CB81862353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="OGJmCxfz23NeBBa2bubnxfUXwS4hI3x3+IR/kqNt1mlji0ANhfYZiot5CSnMDrxUrmgSUa4nME24RDyooLYxDA==" workbookSaltValue="pFaXa+PEL7wAk525fTdqdA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
     <sheet name="Validation" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Metadata" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_a0Tb0vzKk1m">Metadata!$C$221</definedName>
     <definedName name="_aBpbcEgtzgw">Metadata!$C$150</definedName>
@@ -461,9 +458,6 @@
     <definedName name="_ZVZnw9CazmI">Metadata!$C$90</definedName>
     <definedName name="_zYQqFxQw5jj">Metadata!$C$405</definedName>
     <definedName name="_ZzoDfdWIt6z">Metadata!$C$195</definedName>
-    <definedName name="dropdownlist" localSheetId="1">[1]Input!$AE$2:INDEX([1]Input!$AE$2:$AE$250,MAX([1]Input!$AD$2:$AD$250),1)</definedName>
-    <definedName name="dropdownlist" localSheetId="2">[1]Input!$AE$2:INDEX([1]Input!$AE$2:$AE$250,MAX([1]Input!$AD$2:$AD$250),1)</definedName>
-    <definedName name="dropdownlist">Regulation!$AG$2:INDEX(Regulation!$AG$2:$AG$248,MAX(Regulation!$AF$2:$AF$248),1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -4366,9 +4360,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4380,6 +4371,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -4472,2000 +4466,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Input"/>
-      <sheetName val="Output_Institution"/>
-      <sheetName val="Sourcetype"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="AD2">
-            <v>1</v>
-          </cell>
-          <cell r="AE2" t="str">
-            <v>Algeria</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="AD3">
-            <v>2</v>
-          </cell>
-          <cell r="AE3" t="str">
-            <v>Angola</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AD4">
-            <v>3</v>
-          </cell>
-          <cell r="AE4" t="str">
-            <v>Benin</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AD5">
-            <v>4</v>
-          </cell>
-          <cell r="AE5" t="str">
-            <v>Botswana</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AD6">
-            <v>5</v>
-          </cell>
-          <cell r="AE6" t="str">
-            <v>Burkina Faso</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AD7">
-            <v>6</v>
-          </cell>
-          <cell r="AE7" t="str">
-            <v>Burundi</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AD8">
-            <v>7</v>
-          </cell>
-          <cell r="AE8" t="str">
-            <v>Cabo Verde</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AD9">
-            <v>8</v>
-          </cell>
-          <cell r="AE9" t="str">
-            <v>Cameroon</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AD10">
-            <v>9</v>
-          </cell>
-          <cell r="AE10" t="str">
-            <v>Central African Republic</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AD11">
-            <v>10</v>
-          </cell>
-          <cell r="AE11" t="str">
-            <v>Chad</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AD12">
-            <v>11</v>
-          </cell>
-          <cell r="AE12" t="str">
-            <v>Comoros</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AD13">
-            <v>12</v>
-          </cell>
-          <cell r="AE13" t="str">
-            <v>Congo</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AD14">
-            <v>13</v>
-          </cell>
-          <cell r="AE14" t="str">
-            <v>Cote d'Ivoire</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AD15">
-            <v>14</v>
-          </cell>
-          <cell r="AE15" t="str">
-            <v>Democratic Republic of the Congo</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AD16">
-            <v>15</v>
-          </cell>
-          <cell r="AE16" t="str">
-            <v>Equatorial Guinea</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AD17">
-            <v>16</v>
-          </cell>
-          <cell r="AE17" t="str">
-            <v>Eritrea</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AD18">
-            <v>17</v>
-          </cell>
-          <cell r="AE18" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AD19">
-            <v>18</v>
-          </cell>
-          <cell r="AE19" t="str">
-            <v>Gabon</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AD20">
-            <v>19</v>
-          </cell>
-          <cell r="AE20" t="str">
-            <v>Gambia</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AD21">
-            <v>20</v>
-          </cell>
-          <cell r="AE21" t="str">
-            <v>Ghana</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AD22">
-            <v>21</v>
-          </cell>
-          <cell r="AE22" t="str">
-            <v>Guinea</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AD23">
-            <v>22</v>
-          </cell>
-          <cell r="AE23" t="str">
-            <v>Guinea-Bissau</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AD24">
-            <v>23</v>
-          </cell>
-          <cell r="AE24" t="str">
-            <v>Kenya</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AD25">
-            <v>24</v>
-          </cell>
-          <cell r="AE25" t="str">
-            <v>Lesotho</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AD26">
-            <v>25</v>
-          </cell>
-          <cell r="AE26" t="str">
-            <v>Liberia</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AD27">
-            <v>26</v>
-          </cell>
-          <cell r="AE27" t="str">
-            <v>Madagascar</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AD28">
-            <v>27</v>
-          </cell>
-          <cell r="AE28" t="str">
-            <v>Malawi</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AD29">
-            <v>28</v>
-          </cell>
-          <cell r="AE29" t="str">
-            <v>Mali</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AD30">
-            <v>29</v>
-          </cell>
-          <cell r="AE30" t="str">
-            <v>Mauritania</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AD31">
-            <v>30</v>
-          </cell>
-          <cell r="AE31" t="str">
-            <v>Mauritius</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="AD32">
-            <v>31</v>
-          </cell>
-          <cell r="AE32" t="str">
-            <v>Mozambique</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="AD33">
-            <v>32</v>
-          </cell>
-          <cell r="AE33" t="str">
-            <v>Namibia</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="AD34">
-            <v>33</v>
-          </cell>
-          <cell r="AE34" t="str">
-            <v>Niger</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="AD35">
-            <v>34</v>
-          </cell>
-          <cell r="AE35" t="str">
-            <v>Nigeria</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="AD36">
-            <v>35</v>
-          </cell>
-          <cell r="AE36" t="str">
-            <v>Rwanda</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="AD37">
-            <v>36</v>
-          </cell>
-          <cell r="AE37" t="str">
-            <v>Sao Tome and Principe</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="AD38">
-            <v>37</v>
-          </cell>
-          <cell r="AE38" t="str">
-            <v>Senegal</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="AD39">
-            <v>38</v>
-          </cell>
-          <cell r="AE39" t="str">
-            <v>Seychelles</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="AD40">
-            <v>39</v>
-          </cell>
-          <cell r="AE40" t="str">
-            <v>Sierra Leone</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="AD41">
-            <v>40</v>
-          </cell>
-          <cell r="AE41" t="str">
-            <v>South Africa</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="AD42">
-            <v>41</v>
-          </cell>
-          <cell r="AE42" t="str">
-            <v>South Sudan</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="AD43">
-            <v>42</v>
-          </cell>
-          <cell r="AE43" t="str">
-            <v>Swaziland</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="AD44">
-            <v>43</v>
-          </cell>
-          <cell r="AE44" t="str">
-            <v>Togo</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="AD45">
-            <v>44</v>
-          </cell>
-          <cell r="AE45" t="str">
-            <v>Uganda</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="AD46">
-            <v>45</v>
-          </cell>
-          <cell r="AE46" t="str">
-            <v>United Republic of Tanzania</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="AD47">
-            <v>46</v>
-          </cell>
-          <cell r="AE47" t="str">
-            <v>Zambia</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="AD48">
-            <v>47</v>
-          </cell>
-          <cell r="AE48" t="str">
-            <v>Zimbabwe</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="AD49">
-            <v>48</v>
-          </cell>
-          <cell r="AE49" t="str">
-            <v>Antigua and Barbuda</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AD50">
-            <v>49</v>
-          </cell>
-          <cell r="AE50" t="str">
-            <v>Argentina</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="AD51">
-            <v>50</v>
-          </cell>
-          <cell r="AE51" t="str">
-            <v>Bahamas</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AD52">
-            <v>51</v>
-          </cell>
-          <cell r="AE52" t="str">
-            <v>Barbados</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AD53">
-            <v>52</v>
-          </cell>
-          <cell r="AE53" t="str">
-            <v>Belize</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AD54">
-            <v>53</v>
-          </cell>
-          <cell r="AE54" t="str">
-            <v>Bolivia (Plurinational State of)</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="AD57">
-            <v>54</v>
-          </cell>
-          <cell r="AE57" t="str">
-            <v>Chile</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="AD58">
-            <v>55</v>
-          </cell>
-          <cell r="AE58" t="str">
-            <v>Colombia</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="AD59">
-            <v>56</v>
-          </cell>
-          <cell r="AE59" t="str">
-            <v>Costa Rica</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="AD60">
-            <v>57</v>
-          </cell>
-          <cell r="AE60" t="str">
-            <v>Cuba</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="AD61">
-            <v>58</v>
-          </cell>
-          <cell r="AE61" t="str">
-            <v>Dominica</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="AD62">
-            <v>59</v>
-          </cell>
-          <cell r="AE62" t="str">
-            <v>Dominican Republic</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="AD63">
-            <v>60</v>
-          </cell>
-          <cell r="AE63" t="str">
-            <v>Ecuador</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="AD64">
-            <v>61</v>
-          </cell>
-          <cell r="AE64" t="str">
-            <v>El Salvador</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="AD65">
-            <v>62</v>
-          </cell>
-          <cell r="AE65" t="str">
-            <v>Grenada</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="AD66">
-            <v>63</v>
-          </cell>
-          <cell r="AE66" t="str">
-            <v>Guatemala</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="AD67">
-            <v>64</v>
-          </cell>
-          <cell r="AE67" t="str">
-            <v>Guyana</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="AD68">
-            <v>65</v>
-          </cell>
-          <cell r="AE68" t="str">
-            <v>Haiti</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="AD69">
-            <v>66</v>
-          </cell>
-          <cell r="AE69" t="str">
-            <v>Honduras</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="AD70">
-            <v>67</v>
-          </cell>
-          <cell r="AE70" t="str">
-            <v>Jamaica</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="AD71">
-            <v>68</v>
-          </cell>
-          <cell r="AE71" t="str">
-            <v>Mexico</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="AD72">
-            <v>69</v>
-          </cell>
-          <cell r="AE72" t="str">
-            <v>Nicaragua</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="AD73">
-            <v>70</v>
-          </cell>
-          <cell r="AE73" t="str">
-            <v>Panama</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="AD74">
-            <v>71</v>
-          </cell>
-          <cell r="AE74" t="str">
-            <v>Paraguay</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="AD75">
-            <v>72</v>
-          </cell>
-          <cell r="AE75" t="str">
-            <v>Peru</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="AD76">
-            <v>73</v>
-          </cell>
-          <cell r="AE76" t="str">
-            <v>Saint Kitts and Nevis</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="AD77">
-            <v>74</v>
-          </cell>
-          <cell r="AE77" t="str">
-            <v>Saint Lucia</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="AD78">
-            <v>75</v>
-          </cell>
-          <cell r="AE78" t="str">
-            <v>Saint Vincent and the Grenadines</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="AD79">
-            <v>76</v>
-          </cell>
-          <cell r="AE79" t="str">
-            <v>Suriname</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="AD80">
-            <v>77</v>
-          </cell>
-          <cell r="AE80" t="str">
-            <v>Trinidad and Tobago</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="AD81">
-            <v>78</v>
-          </cell>
-          <cell r="AE81" t="str">
-            <v>United States of America</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="AD82">
-            <v>79</v>
-          </cell>
-          <cell r="AE82" t="str">
-            <v>Uruguay</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="AD83">
-            <v>80</v>
-          </cell>
-          <cell r="AE83" t="str">
-            <v>Venezuela (Bolivarian Republic of)</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="AD84">
-            <v>81</v>
-          </cell>
-          <cell r="AE84" t="str">
-            <v>Afghanistan</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="AD85">
-            <v>82</v>
-          </cell>
-          <cell r="AE85" t="str">
-            <v>Bahrain</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="AD86">
-            <v>83</v>
-          </cell>
-          <cell r="AE86" t="str">
-            <v>Djibouti</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="AD87">
-            <v>84</v>
-          </cell>
-          <cell r="AE87" t="str">
-            <v>Egypt</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="AD88">
-            <v>85</v>
-          </cell>
-          <cell r="AE88" t="str">
-            <v>Iran (Islamic Republic of)</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="AD89">
-            <v>86</v>
-          </cell>
-          <cell r="AE89" t="str">
-            <v>Iraq</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="AD90">
-            <v>87</v>
-          </cell>
-          <cell r="AE90" t="str">
-            <v>Jordan</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="AD91">
-            <v>88</v>
-          </cell>
-          <cell r="AE91" t="str">
-            <v>Kuwait</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="AD92">
-            <v>89</v>
-          </cell>
-          <cell r="AE92" t="str">
-            <v>Lebanon</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="AD93">
-            <v>90</v>
-          </cell>
-          <cell r="AE93" t="str">
-            <v>Libya</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="AD94">
-            <v>91</v>
-          </cell>
-          <cell r="AE94" t="str">
-            <v>Morocco</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="AD95">
-            <v>92</v>
-          </cell>
-          <cell r="AE95" t="str">
-            <v>Oman</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="AD96">
-            <v>93</v>
-          </cell>
-          <cell r="AE96" t="str">
-            <v>Pakistan</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="AD97">
-            <v>94</v>
-          </cell>
-          <cell r="AE97" t="str">
-            <v>Palestine</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="AD98">
-            <v>95</v>
-          </cell>
-          <cell r="AE98" t="str">
-            <v>Qatar</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="AD99">
-            <v>96</v>
-          </cell>
-          <cell r="AE99" t="str">
-            <v>Saudi Arabia</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="AD100">
-            <v>97</v>
-          </cell>
-          <cell r="AE100" t="str">
-            <v>Somalia</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="AD101">
-            <v>98</v>
-          </cell>
-          <cell r="AE101" t="str">
-            <v>Sudan</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="AD102">
-            <v>99</v>
-          </cell>
-          <cell r="AE102" t="str">
-            <v>Syrian Arab Republic</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="AD103">
-            <v>100</v>
-          </cell>
-          <cell r="AE103" t="str">
-            <v>Tunisia</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="AD104">
-            <v>101</v>
-          </cell>
-          <cell r="AE104" t="str">
-            <v>United Arab Emirates</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="AD105">
-            <v>102</v>
-          </cell>
-          <cell r="AE105" t="str">
-            <v>Yemen</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="AD106">
-            <v>103</v>
-          </cell>
-          <cell r="AE106" t="str">
-            <v>Albania</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="AD107">
-            <v>104</v>
-          </cell>
-          <cell r="AE107" t="str">
-            <v>Andorra</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="AD108">
-            <v>105</v>
-          </cell>
-          <cell r="AE108" t="str">
-            <v>Armenia</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="AD109">
-            <v>106</v>
-          </cell>
-          <cell r="AE109" t="str">
-            <v>Austria</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="AD110">
-            <v>107</v>
-          </cell>
-          <cell r="AE110" t="str">
-            <v>Azerbaijan</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="AD111">
-            <v>108</v>
-          </cell>
-          <cell r="AE111" t="str">
-            <v>Belarus</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="AD112">
-            <v>109</v>
-          </cell>
-          <cell r="AE112" t="str">
-            <v>Belgium</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="AD113">
-            <v>110</v>
-          </cell>
-          <cell r="AE113" t="str">
-            <v>Bosnia and Herzegovina</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="AD114">
-            <v>111</v>
-          </cell>
-          <cell r="AE114" t="str">
-            <v>Bulgaria</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="AD115">
-            <v>112</v>
-          </cell>
-          <cell r="AE115" t="str">
-            <v>Croatia</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="AD116">
-            <v>113</v>
-          </cell>
-          <cell r="AE116" t="str">
-            <v>Cyprus</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="AD117">
-            <v>114</v>
-          </cell>
-          <cell r="AE117" t="str">
-            <v>Czech Republic</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="AD118">
-            <v>115</v>
-          </cell>
-          <cell r="AE118" t="str">
-            <v>Denmark</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="AD119">
-            <v>116</v>
-          </cell>
-          <cell r="AE119" t="str">
-            <v>Estonia</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="AD120">
-            <v>117</v>
-          </cell>
-          <cell r="AE120" t="str">
-            <v>Finland</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="AD121">
-            <v>118</v>
-          </cell>
-          <cell r="AE121" t="str">
-            <v>France</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="AD122">
-            <v>119</v>
-          </cell>
-          <cell r="AE122" t="str">
-            <v>Georgia</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="AD123">
-            <v>120</v>
-          </cell>
-          <cell r="AE123" t="str">
-            <v>Germany</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="AD124">
-            <v>121</v>
-          </cell>
-          <cell r="AE124" t="str">
-            <v>Greece</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="AD125">
-            <v>122</v>
-          </cell>
-          <cell r="AE125" t="str">
-            <v>Hungary</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="AD126">
-            <v>123</v>
-          </cell>
-          <cell r="AE126" t="str">
-            <v>Iceland</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="AD127">
-            <v>124</v>
-          </cell>
-          <cell r="AE127" t="str">
-            <v>Ireland</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="AD128">
-            <v>125</v>
-          </cell>
-          <cell r="AE128" t="str">
-            <v>Israel</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="AD129">
-            <v>126</v>
-          </cell>
-          <cell r="AE129" t="str">
-            <v>Italy</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="AD130">
-            <v>127</v>
-          </cell>
-          <cell r="AE130" t="str">
-            <v>Kazakhstan</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="AD131">
-            <v>128</v>
-          </cell>
-          <cell r="AE131" t="str">
-            <v>Kyrgyzstan</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="AD132">
-            <v>129</v>
-          </cell>
-          <cell r="AE132" t="str">
-            <v>Latvia</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="AD133">
-            <v>130</v>
-          </cell>
-          <cell r="AE133" t="str">
-            <v>Lithuania</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="AD134">
-            <v>131</v>
-          </cell>
-          <cell r="AE134" t="str">
-            <v>Luxembourg</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="AD135">
-            <v>132</v>
-          </cell>
-          <cell r="AE135" t="str">
-            <v>Malta</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="AD136">
-            <v>133</v>
-          </cell>
-          <cell r="AE136" t="str">
-            <v>Monaco</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="AD137">
-            <v>134</v>
-          </cell>
-          <cell r="AE137" t="str">
-            <v>Montenegro</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="AD138">
-            <v>135</v>
-          </cell>
-          <cell r="AE138" t="str">
-            <v>Netherlands</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="AD139">
-            <v>136</v>
-          </cell>
-          <cell r="AE139" t="str">
-            <v>Norway</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="AD140">
-            <v>137</v>
-          </cell>
-          <cell r="AE140" t="str">
-            <v>Poland</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="AD141">
-            <v>138</v>
-          </cell>
-          <cell r="AE141" t="str">
-            <v>Portugal</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="AD142">
-            <v>139</v>
-          </cell>
-          <cell r="AE142" t="str">
-            <v>Republic of Moldova</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="AD143">
-            <v>140</v>
-          </cell>
-          <cell r="AE143" t="str">
-            <v>Romania</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="AD144">
-            <v>141</v>
-          </cell>
-          <cell r="AE144" t="str">
-            <v>Russian Federation</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="AD145">
-            <v>142</v>
-          </cell>
-          <cell r="AE145" t="str">
-            <v>San Marino</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="AD146">
-            <v>143</v>
-          </cell>
-          <cell r="AE146" t="str">
-            <v>Serbia</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="AD147">
-            <v>144</v>
-          </cell>
-          <cell r="AE147" t="str">
-            <v>Slovakia</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="AD148">
-            <v>145</v>
-          </cell>
-          <cell r="AE148" t="str">
-            <v>Slovenia</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="AD149">
-            <v>146</v>
-          </cell>
-          <cell r="AE149" t="str">
-            <v>Spain</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="AD150">
-            <v>147</v>
-          </cell>
-          <cell r="AE150" t="str">
-            <v>Sweden</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="AD151">
-            <v>148</v>
-          </cell>
-          <cell r="AE151" t="str">
-            <v>Switzerland</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="AD152">
-            <v>149</v>
-          </cell>
-          <cell r="AE152" t="str">
-            <v>Tajikistan</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="AD153">
-            <v>150</v>
-          </cell>
-          <cell r="AE153" t="str">
-            <v>The former Yugoslav republic of Macedonia</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="AD154">
-            <v>151</v>
-          </cell>
-          <cell r="AE154" t="str">
-            <v>Turkey</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="AD155">
-            <v>152</v>
-          </cell>
-          <cell r="AE155" t="str">
-            <v>Turkmenistan</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="AD156">
-            <v>153</v>
-          </cell>
-          <cell r="AE156" t="str">
-            <v>Ukraine</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="AD157">
-            <v>154</v>
-          </cell>
-          <cell r="AE157" t="str">
-            <v>United Kingdom of Great Britain and Northern Ireland</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="AD158">
-            <v>155</v>
-          </cell>
-          <cell r="AE158" t="str">
-            <v>Uzbekistan</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="AD159">
-            <v>156</v>
-          </cell>
-          <cell r="AE159" t="str">
-            <v>American Samoa</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="AD160">
-            <v>157</v>
-          </cell>
-          <cell r="AE160" t="str">
-            <v>Anguilla</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="AD161">
-            <v>158</v>
-          </cell>
-          <cell r="AE161" t="str">
-            <v>Aruba</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="AD162">
-            <v>159</v>
-          </cell>
-          <cell r="AE162" t="str">
-            <v>Bermuda</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="AD163">
-            <v>160</v>
-          </cell>
-          <cell r="AE163" t="str">
-            <v>Bonaire, Saint Eustatius and Saba</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="AD164">
-            <v>161</v>
-          </cell>
-          <cell r="AE164" t="str">
-            <v>British Virgin Islands</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="AD165">
-            <v>162</v>
-          </cell>
-          <cell r="AE165" t="str">
-            <v>Cayman Islands</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="AD166">
-            <v>163</v>
-          </cell>
-          <cell r="AE166" t="str">
-            <v>China, Hong Kong Special Administrative Region</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="AD167">
-            <v>164</v>
-          </cell>
-          <cell r="AE167" t="str">
-            <v>China, Macao Special Administrative Region</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="AD168">
-            <v>165</v>
-          </cell>
-          <cell r="AE168" t="str">
-            <v>China: Province of Taiwan only</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="AD169">
-            <v>166</v>
-          </cell>
-          <cell r="AE169" t="str">
-            <v>Curacao</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="AD170">
-            <v>167</v>
-          </cell>
-          <cell r="AE170" t="str">
-            <v>Czechoslovakia, Former</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="AD171">
-            <v>168</v>
-          </cell>
-          <cell r="AE171" t="str">
-            <v>Falkland Islands (Malvinas)</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="AD172">
-            <v>169</v>
-          </cell>
-          <cell r="AE172" t="str">
-            <v>Faroe Islands</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="AD173">
-            <v>170</v>
-          </cell>
-          <cell r="AE173" t="str">
-            <v>French Guiana</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="AD174">
-            <v>171</v>
-          </cell>
-          <cell r="AE174" t="str">
-            <v>French Polynesia</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="AD175">
-            <v>172</v>
-          </cell>
-          <cell r="AE175" t="str">
-            <v>Germany, Former Democratic Republic</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="AD176">
-            <v>173</v>
-          </cell>
-          <cell r="AE176" t="str">
-            <v>Germany, Former Federal Republic</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="AD177">
-            <v>174</v>
-          </cell>
-          <cell r="AE177" t="str">
-            <v>Germany, West Berlin</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="AD178">
-            <v>175</v>
-          </cell>
-          <cell r="AE178" t="str">
-            <v>Gibraltar</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="AD179">
-            <v>176</v>
-          </cell>
-          <cell r="AE179" t="str">
-            <v>Greenland</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="AD180">
-            <v>177</v>
-          </cell>
-          <cell r="AE180" t="str">
-            <v>Guadeloupe</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="AD181">
-            <v>178</v>
-          </cell>
-          <cell r="AE181" t="str">
-            <v>Guam</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="AD182">
-            <v>179</v>
-          </cell>
-          <cell r="AE182" t="str">
-            <v>Liechtenstein</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="AD183">
-            <v>180</v>
-          </cell>
-          <cell r="AE183" t="str">
-            <v>Martinique</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="AD184">
-            <v>181</v>
-          </cell>
-          <cell r="AE184" t="str">
-            <v>Mayotte</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="AD185">
-            <v>182</v>
-          </cell>
-          <cell r="AE185" t="str">
-            <v>Montserrat</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="AD186">
-            <v>183</v>
-          </cell>
-          <cell r="AE186" t="str">
-            <v>Netherlands Antilles</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="AD187">
-            <v>184</v>
-          </cell>
-          <cell r="AE187" t="str">
-            <v>New Caledonia</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="AD188">
-            <v>185</v>
-          </cell>
-          <cell r="AE188" t="str">
-            <v>Norfolk Island</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="AD189">
-            <v>186</v>
-          </cell>
-          <cell r="AE189" t="str">
-            <v>Northern Mariana Islands</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="AD190">
-            <v>187</v>
-          </cell>
-          <cell r="AE190" t="str">
-            <v>Pitcairn Island</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="AD191">
-            <v>188</v>
-          </cell>
-          <cell r="AE191" t="str">
-            <v>Puerto Rico</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="AD192">
-            <v>189</v>
-          </cell>
-          <cell r="AE192" t="str">
-            <v>Rodrigues</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="AD193">
-            <v>190</v>
-          </cell>
-          <cell r="AE193" t="str">
-            <v>Rï¿½union</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="AD194">
-            <v>191</v>
-          </cell>
-          <cell r="AE194" t="str">
-            <v>Ryu Kyu Islands</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="AD195">
-            <v>192</v>
-          </cell>
-          <cell r="AE195" t="str">
-            <v>Saint Helena</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="AD196">
-            <v>193</v>
-          </cell>
-          <cell r="AE196" t="str">
-            <v>Saint Pierre and Miquelon</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="AD197">
-            <v>194</v>
-          </cell>
-          <cell r="AE197" t="str">
-            <v>Serbia and Montenegro, Former</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="AD198">
-            <v>195</v>
-          </cell>
-          <cell r="AE198" t="str">
-            <v>Sint Maarten (Dutch part)</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="AD199">
-            <v>196</v>
-          </cell>
-          <cell r="AE199" t="str">
-            <v>Sudan (former)</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="AD200">
-            <v>197</v>
-          </cell>
-          <cell r="AE200" t="str">
-            <v>The former state union Serbia and Montenegro</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="AD201">
-            <v>198</v>
-          </cell>
-          <cell r="AE201" t="str">
-            <v>Tokelau</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="AD202">
-            <v>199</v>
-          </cell>
-          <cell r="AE202" t="str">
-            <v>Turks and Caicos Islands</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="AD203">
-            <v>200</v>
-          </cell>
-          <cell r="AE203" t="str">
-            <v>United Kingdom, England and Wales</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="AD204">
-            <v>201</v>
-          </cell>
-          <cell r="AE204" t="str">
-            <v>United Kingdom, Northern Ireland</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="AD205">
-            <v>202</v>
-          </cell>
-          <cell r="AE205" t="str">
-            <v>United Kingdom, Scotland</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="AD206">
-            <v>203</v>
-          </cell>
-          <cell r="AE206" t="str">
-            <v>USSR, Former</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="AD207">
-            <v>204</v>
-          </cell>
-          <cell r="AE207" t="str">
-            <v>Virgin Islands (USA)</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="AD208">
-            <v>205</v>
-          </cell>
-          <cell r="AE208" t="str">
-            <v>Wallis and Futuna Islands</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="AD209">
-            <v>206</v>
-          </cell>
-          <cell r="AE209" t="str">
-            <v>West Bank</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="AD210">
-            <v>207</v>
-          </cell>
-          <cell r="AE210" t="str">
-            <v>Yugoslavia, Former</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="AD211">
-            <v>208</v>
-          </cell>
-          <cell r="AE211" t="str">
-            <v>Bangladesh</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="AD212">
-            <v>209</v>
-          </cell>
-          <cell r="AE212" t="str">
-            <v>Bhutan</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="AD213">
-            <v>210</v>
-          </cell>
-          <cell r="AE213" t="str">
-            <v>Democratic People's Republic of Korea</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="AD214">
-            <v>211</v>
-          </cell>
-          <cell r="AE214" t="str">
-            <v>India</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="AD215">
-            <v>212</v>
-          </cell>
-          <cell r="AE215" t="str">
-            <v>Indonesia</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="AD216">
-            <v>213</v>
-          </cell>
-          <cell r="AE216" t="str">
-            <v>Maldives</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="AD217">
-            <v>214</v>
-          </cell>
-          <cell r="AE217" t="str">
-            <v>Myanmar</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="AD218">
-            <v>215</v>
-          </cell>
-          <cell r="AE218" t="str">
-            <v>Nepal</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="AD219">
-            <v>216</v>
-          </cell>
-          <cell r="AE219" t="str">
-            <v>Sri Lanka</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="AD220">
-            <v>217</v>
-          </cell>
-          <cell r="AE220" t="str">
-            <v>Thailand</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="AD221">
-            <v>218</v>
-          </cell>
-          <cell r="AE221" t="str">
-            <v>Timor-Leste</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="AD222">
-            <v>219</v>
-          </cell>
-          <cell r="AE222" t="str">
-            <v>Australia</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="AD223">
-            <v>220</v>
-          </cell>
-          <cell r="AE223" t="str">
-            <v>Brunei Darussalam</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="AD224">
-            <v>221</v>
-          </cell>
-          <cell r="AE224" t="str">
-            <v>Cambodia</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="AD225">
-            <v>222</v>
-          </cell>
-          <cell r="AE225" t="str">
-            <v>China</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="AD226">
-            <v>223</v>
-          </cell>
-          <cell r="AE226" t="str">
-            <v>Cook Islands</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="AD227">
-            <v>224</v>
-          </cell>
-          <cell r="AE227" t="str">
-            <v>Fiji</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="AD228">
-            <v>225</v>
-          </cell>
-          <cell r="AE228" t="str">
-            <v>Japan</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="AD229">
-            <v>226</v>
-          </cell>
-          <cell r="AE229" t="str">
-            <v>Kiribati</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="AD230">
-            <v>227</v>
-          </cell>
-          <cell r="AE230" t="str">
-            <v>Lao People's Democratic Republic</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="AD231">
-            <v>228</v>
-          </cell>
-          <cell r="AE231" t="str">
-            <v>Malaysia</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="AD232">
-            <v>229</v>
-          </cell>
-          <cell r="AE232" t="str">
-            <v>Marshall Islands</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="AD233">
-            <v>230</v>
-          </cell>
-          <cell r="AE233" t="str">
-            <v>Micronesia (Federated States of)</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="AD234">
-            <v>231</v>
-          </cell>
-          <cell r="AE234" t="str">
-            <v>Mongolia</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="AD235">
-            <v>232</v>
-          </cell>
-          <cell r="AE235" t="str">
-            <v>Nauru</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="AD236">
-            <v>233</v>
-          </cell>
-          <cell r="AE236" t="str">
-            <v>New Zealand</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="AD237">
-            <v>234</v>
-          </cell>
-          <cell r="AE237" t="str">
-            <v>Niue</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="AD238">
-            <v>235</v>
-          </cell>
-          <cell r="AE238" t="str">
-            <v>Palau</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="AD239">
-            <v>236</v>
-          </cell>
-          <cell r="AE239" t="str">
-            <v>Papua New Guinea</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="AD240">
-            <v>237</v>
-          </cell>
-          <cell r="AE240" t="str">
-            <v>Philippines</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="AD241">
-            <v>238</v>
-          </cell>
-          <cell r="AE241" t="str">
-            <v>Republic of Korea</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="AD242">
-            <v>239</v>
-          </cell>
-          <cell r="AE242" t="str">
-            <v>Samoa</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="AD243">
-            <v>240</v>
-          </cell>
-          <cell r="AE243" t="str">
-            <v>Singapore</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="AD244">
-            <v>241</v>
-          </cell>
-          <cell r="AE244" t="str">
-            <v>Solomon Islands</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="AD245">
-            <v>242</v>
-          </cell>
-          <cell r="AE245" t="str">
-            <v>Tonga</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="AD246">
-            <v>243</v>
-          </cell>
-          <cell r="AE246" t="str">
-            <v>Tuvalu</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="AD247">
-            <v>244</v>
-          </cell>
-          <cell r="AE247" t="str">
-            <v>Vanuatu</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="AD248">
-            <v>245</v>
-          </cell>
-          <cell r="AE248" t="str">
-            <v>Viet Nam</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="AD249">
-            <v>246</v>
-          </cell>
-          <cell r="AE249" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="AD250">
-            <v>247</v>
-          </cell>
-          <cell r="AE250" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7159,9 +5159,9 @@
       <c r="F8" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="10"/>
@@ -7211,9 +5211,9 @@
       <c r="F9" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="10"/>
@@ -7263,9 +5263,9 @@
       <c r="F10" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="10"/>
@@ -7315,9 +5315,9 @@
       <c r="F11" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="10"/>
@@ -7367,9 +5367,9 @@
       <c r="F12" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="10"/>
@@ -7427,9 +5427,9 @@
       <c r="F13" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="10"/>
@@ -7487,9 +5487,9 @@
       <c r="F14" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="10"/>
@@ -15163,14 +13163,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8g6zz46fAWOu+rsAaggsjzQyD+YIL9GLMZ797wvQmI6hLxMRk6TGYGpTh3cM1YTwNjUDdNMVZ6YgMFL7B+T9Iw==" saltValue="GGtiwEsxyFUsOJZiaP65+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FRaq8yqr8I+H1eZZVII4cMGpJxFBsQYV6MAxqsPu6zfJYrADAZwWm5Hz4HYuarOeVLx6A2fE1m9OhQi5/8bdsQ==" saltValue="nhlhXWfHi5O0bCviDpCing==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G8:I8"/>
@@ -15178,6 +13172,12 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:F14">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -15936,18 +13936,18 @@
       <c r="K16" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZRObZPQIqkFQnRYVSJ0/Wr3Vtnge0glKACmx7oKNjTzyG7PVYJ1zr6omUBq18pAeJhIuJlHIlWvHcL/ojAq9DQ==" saltValue="8Z5BHOE2AMPQd1nQ/JF2CQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ueS0afdBAghWFa18VJ8IpAbbfGvjMPVxR6TD0ie0/zQoCiDls7KGy9syCZn3dvOg/TVFBnXW32mqyYk0X6siTA==" saltValue="PBeD7RfOLhyk5XXkW++xIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="10">
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:F14">
     <cfRule type="expression" dxfId="6" priority="6">
@@ -16360,7 +14360,7 @@
       <c r="K16" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1Jj0JrBUgTVBUDdI2Dl2DdEYOKDz9pp7Cf0wtZn8Fdp6Y6hot03dp7zLWROkjjXqQc0yCrZprB3hJuKCD5BEtA==" saltValue="pyJeN2MybVPj/6VvxxBztQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CeS+bBNVB5yxXE5zfUQ/BS0sCvu9Im51PVBiQ2ebefZ3VvRAMuPQJUPcwpitA5Bv5Ep9kfa5sqNWZrcqRbuDJQ==" saltValue="xvHaUXd2eQmpHQVIRTA5rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -16411,14 +14411,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="str">
+      <c r="A1" s="43" t="str">
         <f>_pZ3XRBi9gYE</f>
         <v>NHWA Module 3</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -18072,32 +16072,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>1189</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>1188</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>1187</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="43" t="s">
         <v>1186</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="43" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">

--- a/public/templates/NHWA_Module_3.xlsx
+++ b/public/templates/NHWA_Module_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Final friday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82608B05-3298-43E0-9764-65CB81862353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE29B34-2CD2-4495-9AF0-207226F24762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="OGJmCxfz23NeBBa2bubnxfUXwS4hI3x3+IR/kqNt1mlji0ANhfYZiot5CSnMDrxUrmgSUa4nME24RDyooLYxDA==" workbookSaltValue="pFaXa+PEL7wAk525fTdqdA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -4819,8 +4819,7 @@
     <col min="28" max="28" width="15.140625" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="32" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="47.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="36" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="37" max="42" width="9.140625" style="1" customWidth="1"/>
+    <col min="34" max="42" width="9.140625" style="1" customWidth="1"/>
     <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5705,7 +5704,10 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="10">
+        <f t="shared" ref="W18:W35" ca="1" si="2">W19+1</f>
+        <v>2020</v>
+      </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="AA18" s="23" t="s">
@@ -5755,7 +5757,10 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2019</v>
+      </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="AA19" s="23" t="s">
@@ -5805,7 +5810,10 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="W20" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2018</v>
+      </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="AA20" s="23" t="s">
@@ -5855,7 +5863,10 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="W21" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="AA21" s="23" t="s">
@@ -5905,7 +5916,10 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="AA22" s="23" t="s">
@@ -5955,7 +5969,10 @@
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="W23" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="AA23" s="23" t="s">
@@ -6005,7 +6022,10 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2014</v>
+      </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="AA24" s="23" t="s">
@@ -6055,7 +6075,10 @@
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="W25" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="AA25" s="23" t="s">
@@ -6105,7 +6128,10 @@
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="W26" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="AA26" s="23" t="s">
@@ -6155,7 +6181,10 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="W27" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2011</v>
+      </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="AA27" s="23" t="s">
@@ -6205,7 +6234,10 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
+      <c r="W28" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2010</v>
+      </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="AA28" s="23" t="s">
@@ -6255,7 +6287,10 @@
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="W29" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="AA29" s="23" t="s">
@@ -6305,7 +6340,10 @@
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="W30" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="AA30" s="23" t="s">
@@ -6355,7 +6393,10 @@
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
+      <c r="W31" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2007</v>
+      </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="AA31" s="23" t="s">
@@ -6405,7 +6446,10 @@
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
+      <c r="W32" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="AA32" s="23" t="s">
@@ -6455,7 +6499,10 @@
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
+      <c r="W33" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2005</v>
+      </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
       <c r="AA33" s="23" t="s">
@@ -6505,7 +6552,10 @@
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
+      <c r="W34" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
       <c r="AA34" s="23" t="s">
@@ -6555,7 +6605,10 @@
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
+      <c r="W35" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2003</v>
+      </c>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="AA35" s="23" t="s">
@@ -6605,7 +6658,10 @@
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
+      <c r="W36" s="10">
+        <f ca="1">W37+1</f>
+        <v>2002</v>
+      </c>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="AA36" s="23" t="s">
@@ -6646,7 +6702,10 @@
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
+      <c r="W37" s="10">
+        <f ca="1">YEAR(TODAY())-20</f>
+        <v>2001</v>
+      </c>
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
       <c r="AA37" s="23" t="s">
@@ -7976,7 +8035,7 @@
         <v>406</v>
       </c>
       <c r="AE68" s="1">
-        <f t="shared" ref="AE68:AE131" si="2">--ISNUMBER(IFERROR(SEARCH($X$1,AA68,1),""))</f>
+        <f t="shared" ref="AE68:AE131" si="3">--ISNUMBER(IFERROR(SEARCH($X$1,AA68,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF68" s="1">
@@ -8002,7 +8061,7 @@
         <v>360</v>
       </c>
       <c r="AE69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF69" s="1">
@@ -8028,7 +8087,7 @@
         <v>288</v>
       </c>
       <c r="AE70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF70" s="1">
@@ -8054,7 +8113,7 @@
         <v>288</v>
       </c>
       <c r="AE71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF71" s="1">
@@ -8080,7 +8139,7 @@
         <v>288</v>
       </c>
       <c r="AE72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF72" s="1">
@@ -8106,7 +8165,7 @@
         <v>360</v>
       </c>
       <c r="AE73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF73" s="1">
@@ -8132,7 +8191,7 @@
         <v>288</v>
       </c>
       <c r="AE74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF74" s="1">
@@ -8158,7 +8217,7 @@
         <v>192</v>
       </c>
       <c r="AE75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF75" s="1">
@@ -8184,7 +8243,7 @@
         <v>192</v>
       </c>
       <c r="AE76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF76" s="1">
@@ -8210,7 +8269,7 @@
         <v>406</v>
       </c>
       <c r="AE77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF77" s="1">
@@ -8236,7 +8295,7 @@
         <v>192</v>
       </c>
       <c r="AE78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF78" s="1">
@@ -8262,7 +8321,7 @@
         <v>192</v>
       </c>
       <c r="AE79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF79" s="1">
@@ -8288,7 +8347,7 @@
         <v>514</v>
       </c>
       <c r="AE80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF80" s="1">
@@ -8314,7 +8373,7 @@
         <v>514</v>
       </c>
       <c r="AE81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF81" s="1">
@@ -8340,7 +8399,7 @@
         <v>685</v>
       </c>
       <c r="AE82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF82" s="1">
@@ -8366,7 +8425,7 @@
         <v>406</v>
       </c>
       <c r="AE83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF83" s="1">
@@ -8392,7 +8451,7 @@
         <v>406</v>
       </c>
       <c r="AE84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF84" s="1">
@@ -8418,7 +8477,7 @@
         <v>514</v>
       </c>
       <c r="AE85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF85" s="1">
@@ -8444,7 +8503,7 @@
         <v>685</v>
       </c>
       <c r="AE86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF86" s="1">
@@ -8470,7 +8529,7 @@
         <v>514</v>
       </c>
       <c r="AE87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF87" s="1">
@@ -8496,7 +8555,7 @@
         <v>192</v>
       </c>
       <c r="AE88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF88" s="1">
@@ -8522,7 +8581,7 @@
         <v>192</v>
       </c>
       <c r="AE89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF89" s="1">
@@ -8548,7 +8607,7 @@
         <v>406</v>
       </c>
       <c r="AE90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF90" s="1">
@@ -8574,7 +8633,7 @@
         <v>406</v>
       </c>
       <c r="AE91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF91" s="1">
@@ -8600,7 +8659,7 @@
         <v>514</v>
       </c>
       <c r="AE92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF92" s="1">
@@ -8626,7 +8685,7 @@
         <v>514</v>
       </c>
       <c r="AE93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF93" s="1">
@@ -8652,7 +8711,7 @@
         <v>514</v>
       </c>
       <c r="AE94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF94" s="1">
@@ -8678,7 +8737,7 @@
         <v>192</v>
       </c>
       <c r="AE95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF95" s="1">
@@ -8704,7 +8763,7 @@
         <v>514</v>
       </c>
       <c r="AE96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF96" s="1">
@@ -8730,7 +8789,7 @@
         <v>406</v>
       </c>
       <c r="AE97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF97" s="1">
@@ -8756,7 +8815,7 @@
         <v>406</v>
       </c>
       <c r="AE98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF98" s="1">
@@ -8782,7 +8841,7 @@
         <v>288</v>
       </c>
       <c r="AE99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF99" s="1">
@@ -8808,7 +8867,7 @@
         <v>514</v>
       </c>
       <c r="AE100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF100" s="1">
@@ -8834,7 +8893,7 @@
         <v>685</v>
       </c>
       <c r="AE101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF101" s="1">
@@ -8860,7 +8919,7 @@
         <v>288</v>
       </c>
       <c r="AE102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF102" s="1">
@@ -8886,7 +8945,7 @@
         <v>514</v>
       </c>
       <c r="AE103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF103" s="1">
@@ -8912,7 +8971,7 @@
         <v>192</v>
       </c>
       <c r="AE104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF104" s="1">
@@ -8938,7 +8997,7 @@
         <v>192</v>
       </c>
       <c r="AE105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF105" s="1">
@@ -8964,7 +9023,7 @@
         <v>288</v>
       </c>
       <c r="AE106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF106" s="1">
@@ -8990,7 +9049,7 @@
         <v>288</v>
       </c>
       <c r="AE107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF107" s="1">
@@ -9016,7 +9075,7 @@
         <v>514</v>
       </c>
       <c r="AE108" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF108" s="1">
@@ -9042,7 +9101,7 @@
         <v>514</v>
       </c>
       <c r="AE109" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF109" s="1">
@@ -9068,7 +9127,7 @@
         <v>288</v>
       </c>
       <c r="AE110" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF110" s="1">
@@ -9094,7 +9153,7 @@
         <v>406</v>
       </c>
       <c r="AE111" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF111" s="1">
@@ -9120,7 +9179,7 @@
         <v>406</v>
       </c>
       <c r="AE112" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF112" s="1">
@@ -9146,7 +9205,7 @@
         <v>662</v>
       </c>
       <c r="AE113" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF113" s="1">
@@ -9172,7 +9231,7 @@
         <v>662</v>
       </c>
       <c r="AE114" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF114" s="1">
@@ -9198,7 +9257,7 @@
         <v>360</v>
       </c>
       <c r="AE115" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF115" s="1">
@@ -9224,7 +9283,7 @@
         <v>360</v>
       </c>
       <c r="AE116" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF116" s="1">
@@ -9250,7 +9309,7 @@
         <v>406</v>
       </c>
       <c r="AE117" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF117" s="1">
@@ -9276,7 +9335,7 @@
         <v>514</v>
       </c>
       <c r="AE118" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF118" s="1">
@@ -9302,7 +9361,7 @@
         <v>406</v>
       </c>
       <c r="AE119" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF119" s="1">
@@ -9328,7 +9387,7 @@
         <v>406</v>
       </c>
       <c r="AE120" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF120" s="1">
@@ -9354,7 +9413,7 @@
         <v>288</v>
       </c>
       <c r="AE121" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF121" s="1">
@@ -9380,7 +9439,7 @@
         <v>685</v>
       </c>
       <c r="AE122" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF122" s="1">
@@ -9406,7 +9465,7 @@
         <v>514</v>
       </c>
       <c r="AE123" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF123" s="1">
@@ -9432,7 +9491,7 @@
         <v>360</v>
       </c>
       <c r="AE124" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF124" s="1">
@@ -9458,7 +9517,7 @@
         <v>406</v>
       </c>
       <c r="AE125" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF125" s="1">
@@ -9484,7 +9543,7 @@
         <v>192</v>
       </c>
       <c r="AE126" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF126" s="1">
@@ -9510,7 +9569,7 @@
         <v>685</v>
       </c>
       <c r="AE127" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF127" s="1">
@@ -9536,7 +9595,7 @@
         <v>360</v>
       </c>
       <c r="AE128" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF128" s="1">
@@ -9562,7 +9621,7 @@
         <v>406</v>
       </c>
       <c r="AE129" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF129" s="1">
@@ -9588,7 +9647,7 @@
         <v>685</v>
       </c>
       <c r="AE130" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF130" s="1">
@@ -9614,7 +9673,7 @@
         <v>406</v>
       </c>
       <c r="AE131" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF131" s="1">
@@ -9640,7 +9699,7 @@
         <v>360</v>
       </c>
       <c r="AE132" s="1">
-        <f t="shared" ref="AE132:AE195" si="3">--ISNUMBER(IFERROR(SEARCH($X$1,AA132,1),""))</f>
+        <f t="shared" ref="AE132:AE195" si="4">--ISNUMBER(IFERROR(SEARCH($X$1,AA132,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF132" s="1">
@@ -9666,7 +9725,7 @@
         <v>192</v>
       </c>
       <c r="AE133" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF133" s="1">
@@ -9692,7 +9751,7 @@
         <v>192</v>
       </c>
       <c r="AE134" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF134" s="1">
@@ -9718,7 +9777,7 @@
         <v>360</v>
       </c>
       <c r="AE135" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF135" s="1">
@@ -9744,7 +9803,7 @@
         <v>514</v>
       </c>
       <c r="AE136" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF136" s="1">
@@ -9770,7 +9829,7 @@
         <v>406</v>
       </c>
       <c r="AE137" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF137" s="1">
@@ -9796,7 +9855,7 @@
         <v>406</v>
       </c>
       <c r="AE138" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF138" s="1">
@@ -9822,7 +9881,7 @@
         <v>192</v>
       </c>
       <c r="AE139" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF139" s="1">
@@ -9848,7 +9907,7 @@
         <v>192</v>
       </c>
       <c r="AE140" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF140" s="1">
@@ -9874,7 +9933,7 @@
         <v>685</v>
       </c>
       <c r="AE141" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF141" s="1">
@@ -9900,7 +9959,7 @@
         <v>662</v>
       </c>
       <c r="AE142" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF142" s="1">
@@ -9926,7 +9985,7 @@
         <v>192</v>
       </c>
       <c r="AE143" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF143" s="1">
@@ -9952,7 +10011,7 @@
         <v>406</v>
       </c>
       <c r="AE144" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF144" s="1">
@@ -9978,7 +10037,7 @@
         <v>685</v>
       </c>
       <c r="AE145" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF145" s="1">
@@ -10004,7 +10063,7 @@
         <v>514</v>
       </c>
       <c r="AE146" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF146" s="1">
@@ -10030,7 +10089,7 @@
         <v>192</v>
       </c>
       <c r="AE147" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF147" s="1">
@@ -10056,7 +10115,7 @@
         <v>192</v>
       </c>
       <c r="AE148" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF148" s="1">
@@ -10082,7 +10141,7 @@
         <v>514</v>
       </c>
       <c r="AE149" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF149" s="1">
@@ -10108,7 +10167,7 @@
         <v>288</v>
       </c>
       <c r="AE150" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF150" s="1">
@@ -10134,7 +10193,7 @@
         <v>685</v>
       </c>
       <c r="AE151" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF151" s="1">
@@ -10160,7 +10219,7 @@
         <v>406</v>
       </c>
       <c r="AE152" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF152" s="1">
@@ -10186,7 +10245,7 @@
         <v>685</v>
       </c>
       <c r="AE153" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF153" s="1">
@@ -10212,7 +10271,7 @@
         <v>406</v>
       </c>
       <c r="AE154" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF154" s="1">
@@ -10238,7 +10297,7 @@
         <v>288</v>
       </c>
       <c r="AE155" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF155" s="1">
@@ -10264,7 +10323,7 @@
         <v>360</v>
       </c>
       <c r="AE156" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF156" s="1">
@@ -10290,7 +10349,7 @@
         <v>192</v>
       </c>
       <c r="AE157" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF157" s="1">
@@ -10316,7 +10375,7 @@
         <v>662</v>
       </c>
       <c r="AE158" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF158" s="1">
@@ -10342,7 +10401,7 @@
         <v>192</v>
       </c>
       <c r="AE159" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF159" s="1">
@@ -10368,7 +10427,7 @@
         <v>685</v>
       </c>
       <c r="AE160" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF160" s="1">
@@ -10394,7 +10453,7 @@
         <v>662</v>
       </c>
       <c r="AE161" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF161" s="1">
@@ -10420,7 +10479,7 @@
         <v>406</v>
       </c>
       <c r="AE162" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF162" s="1">
@@ -10446,7 +10505,7 @@
         <v>514</v>
       </c>
       <c r="AE163" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF163" s="1">
@@ -10472,7 +10531,7 @@
         <v>685</v>
       </c>
       <c r="AE164" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF164" s="1">
@@ -10498,7 +10557,7 @@
         <v>685</v>
       </c>
       <c r="AE165" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF165" s="1">
@@ -10524,7 +10583,7 @@
         <v>288</v>
       </c>
       <c r="AE166" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF166" s="1">
@@ -10550,7 +10609,7 @@
         <v>192</v>
       </c>
       <c r="AE167" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF167" s="1">
@@ -10576,7 +10635,7 @@
         <v>192</v>
       </c>
       <c r="AE168" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF168" s="1">
@@ -10602,7 +10661,7 @@
         <v>685</v>
       </c>
       <c r="AE169" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF169" s="1">
@@ -10628,7 +10687,7 @@
         <v>514</v>
       </c>
       <c r="AE170" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF170" s="1">
@@ -10654,7 +10713,7 @@
         <v>406</v>
       </c>
       <c r="AE171" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF171" s="1">
@@ -10680,7 +10739,7 @@
         <v>685</v>
       </c>
       <c r="AE172" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF172" s="1">
@@ -10706,7 +10765,7 @@
         <v>406</v>
       </c>
       <c r="AE173" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF173" s="1">
@@ -10732,7 +10791,7 @@
         <v>360</v>
       </c>
       <c r="AE174" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF174" s="1">
@@ -10758,7 +10817,7 @@
         <v>360</v>
       </c>
       <c r="AE175" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF175" s="1">
@@ -10784,7 +10843,7 @@
         <v>685</v>
       </c>
       <c r="AE176" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF176" s="1">
@@ -10810,7 +10869,7 @@
         <v>288</v>
       </c>
       <c r="AE177" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF177" s="1">
@@ -10836,7 +10895,7 @@
         <v>685</v>
       </c>
       <c r="AE178" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF178" s="1">
@@ -10862,7 +10921,7 @@
         <v>288</v>
       </c>
       <c r="AE179" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF179" s="1">
@@ -10888,7 +10947,7 @@
         <v>288</v>
       </c>
       <c r="AE180" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF180" s="1">
@@ -10914,7 +10973,7 @@
         <v>685</v>
       </c>
       <c r="AE181" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF181" s="1">
@@ -10940,7 +10999,7 @@
         <v>514</v>
       </c>
       <c r="AE182" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF182" s="1">
@@ -10966,7 +11025,7 @@
         <v>406</v>
       </c>
       <c r="AE183" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF183" s="1">
@@ -10992,7 +11051,7 @@
         <v>406</v>
       </c>
       <c r="AE184" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF184" s="1">
@@ -11018,7 +11077,7 @@
         <v>288</v>
       </c>
       <c r="AE185" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF185" s="1">
@@ -11044,7 +11103,7 @@
         <v>360</v>
       </c>
       <c r="AE186" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF186" s="1">
@@ -11070,7 +11129,7 @@
         <v>685</v>
       </c>
       <c r="AE187" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF187" s="1">
@@ -11096,7 +11155,7 @@
         <v>406</v>
       </c>
       <c r="AE188" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF188" s="1">
@@ -11122,7 +11181,7 @@
         <v>514</v>
       </c>
       <c r="AE189" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF189" s="1">
@@ -11148,7 +11207,7 @@
         <v>406</v>
       </c>
       <c r="AE190" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF190" s="1">
@@ -11174,7 +11233,7 @@
         <v>406</v>
       </c>
       <c r="AE191" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF191" s="1">
@@ -11200,7 +11259,7 @@
         <v>192</v>
       </c>
       <c r="AE192" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF192" s="1">
@@ -11226,7 +11285,7 @@
         <v>514</v>
       </c>
       <c r="AE193" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF193" s="1">
@@ -11252,7 +11311,7 @@
         <v>514</v>
       </c>
       <c r="AE194" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF194" s="1">
@@ -11278,7 +11337,7 @@
         <v>514</v>
       </c>
       <c r="AE195" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF195" s="1">
@@ -11304,7 +11363,7 @@
         <v>514</v>
       </c>
       <c r="AE196" s="1">
-        <f t="shared" ref="AE196:AE259" si="4">--ISNUMBER(IFERROR(SEARCH($X$1,AA196,1),""))</f>
+        <f t="shared" ref="AE196:AE259" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA196,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF196" s="1">
@@ -11330,7 +11389,7 @@
         <v>288</v>
       </c>
       <c r="AE197" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF197" s="1">
@@ -11356,7 +11415,7 @@
         <v>288</v>
       </c>
       <c r="AE198" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF198" s="1">
@@ -11382,7 +11441,7 @@
         <v>514</v>
       </c>
       <c r="AE199" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF199" s="1">
@@ -11408,7 +11467,7 @@
         <v>514</v>
       </c>
       <c r="AE200" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF200" s="1">
@@ -11434,7 +11493,7 @@
         <v>288</v>
       </c>
       <c r="AE201" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF201" s="1">
@@ -11460,7 +11519,7 @@
         <v>685</v>
       </c>
       <c r="AE202" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF202" s="1">
@@ -11486,7 +11545,7 @@
         <v>406</v>
       </c>
       <c r="AE203" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF203" s="1">
@@ -11512,7 +11571,7 @@
         <v>192</v>
       </c>
       <c r="AE204" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF204" s="1">
@@ -11538,7 +11597,7 @@
         <v>360</v>
       </c>
       <c r="AE205" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF205" s="1">
@@ -11564,7 +11623,7 @@
         <v>192</v>
       </c>
       <c r="AE206" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF206" s="1">
@@ -11590,7 +11649,7 @@
         <v>406</v>
       </c>
       <c r="AE207" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF207" s="1">
@@ -11616,7 +11675,7 @@
         <v>514</v>
       </c>
       <c r="AE208" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF208" s="1">
@@ -11642,7 +11701,7 @@
         <v>192</v>
       </c>
       <c r="AE209" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF209" s="1">
@@ -11668,7 +11727,7 @@
         <v>192</v>
       </c>
       <c r="AE210" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF210" s="1">
@@ -11694,7 +11753,7 @@
         <v>685</v>
       </c>
       <c r="AE211" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF211" s="1">
@@ -11720,7 +11779,7 @@
         <v>288</v>
       </c>
       <c r="AE212" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF212" s="1">
@@ -11746,7 +11805,7 @@
         <v>406</v>
       </c>
       <c r="AE213" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF213" s="1">
@@ -11772,7 +11831,7 @@
         <v>406</v>
       </c>
       <c r="AE214" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF214" s="1">
@@ -11798,7 +11857,7 @@
         <v>685</v>
       </c>
       <c r="AE215" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF215" s="1">
@@ -11824,7 +11883,7 @@
         <v>360</v>
       </c>
       <c r="AE216" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF216" s="1">
@@ -11850,7 +11909,7 @@
         <v>192</v>
       </c>
       <c r="AE217" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF217" s="1">
@@ -11876,7 +11935,7 @@
         <v>514</v>
       </c>
       <c r="AE218" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF218" s="1">
@@ -11902,7 +11961,7 @@
         <v>192</v>
       </c>
       <c r="AE219" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF219" s="1">
@@ -11928,7 +11987,7 @@
         <v>406</v>
       </c>
       <c r="AE220" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF220" s="1">
@@ -11954,7 +12013,7 @@
         <v>662</v>
       </c>
       <c r="AE221" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF221" s="1">
@@ -11980,7 +12039,7 @@
         <v>360</v>
       </c>
       <c r="AE222" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF222" s="1">
@@ -12006,7 +12065,7 @@
         <v>514</v>
       </c>
       <c r="AE223" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF223" s="1">
@@ -12032,7 +12091,7 @@
         <v>288</v>
       </c>
       <c r="AE224" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF224" s="1">
@@ -12058,7 +12117,7 @@
         <v>514</v>
       </c>
       <c r="AE225" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF225" s="1">
@@ -12084,7 +12143,7 @@
         <v>406</v>
       </c>
       <c r="AE226" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF226" s="1">
@@ -12110,7 +12169,7 @@
         <v>406</v>
       </c>
       <c r="AE227" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF227" s="1">
@@ -12136,7 +12195,7 @@
         <v>360</v>
       </c>
       <c r="AE228" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF228" s="1">
@@ -12162,7 +12221,7 @@
         <v>406</v>
       </c>
       <c r="AE229" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF229" s="1">
@@ -12188,7 +12247,7 @@
         <v>662</v>
       </c>
       <c r="AE230" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF230" s="1">
@@ -12214,7 +12273,7 @@
         <v>514</v>
       </c>
       <c r="AE231" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF231" s="1">
@@ -12240,7 +12299,7 @@
         <v>662</v>
       </c>
       <c r="AE232" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF232" s="1">
@@ -12266,7 +12325,7 @@
         <v>192</v>
       </c>
       <c r="AE233" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF233" s="1">
@@ -12292,7 +12351,7 @@
         <v>685</v>
       </c>
       <c r="AE234" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF234" s="1">
@@ -12318,7 +12377,7 @@
         <v>685</v>
       </c>
       <c r="AE235" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF235" s="1">
@@ -12344,7 +12403,7 @@
         <v>288</v>
       </c>
       <c r="AE236" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF236" s="1">
@@ -12370,7 +12429,7 @@
         <v>360</v>
       </c>
       <c r="AE237" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF237" s="1">
@@ -12396,7 +12455,7 @@
         <v>406</v>
       </c>
       <c r="AE238" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF238" s="1">
@@ -12422,7 +12481,7 @@
         <v>406</v>
       </c>
       <c r="AE239" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF239" s="1">
@@ -12448,7 +12507,7 @@
         <v>288</v>
       </c>
       <c r="AE240" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF240" s="1">
@@ -12474,7 +12533,7 @@
         <v>685</v>
       </c>
       <c r="AE241" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF241" s="1">
@@ -12500,7 +12559,7 @@
         <v>288</v>
       </c>
       <c r="AE242" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF242" s="1">
@@ -12526,7 +12585,7 @@
         <v>514</v>
       </c>
       <c r="AE243" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF243" s="1">
@@ -12552,7 +12611,7 @@
         <v>192</v>
       </c>
       <c r="AE244" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF244" s="1">
@@ -12578,7 +12637,7 @@
         <v>406</v>
       </c>
       <c r="AE245" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF245" s="1">
@@ -12604,7 +12663,7 @@
         <v>360</v>
       </c>
       <c r="AE246" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF246" s="1">
@@ -12630,7 +12689,7 @@
         <v>406</v>
       </c>
       <c r="AE247" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF247" s="1">
@@ -12656,7 +12715,7 @@
         <v>514</v>
       </c>
       <c r="AE248" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF248" s="1">
@@ -12682,7 +12741,7 @@
         <v>514</v>
       </c>
       <c r="AE249" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF249" s="1">
@@ -12708,7 +12767,7 @@
         <v>514</v>
       </c>
       <c r="AE250" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF250" s="1">
@@ -12734,7 +12793,7 @@
         <v>192</v>
       </c>
       <c r="AE251" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF251" s="1">
@@ -12760,7 +12819,7 @@
         <v>514</v>
       </c>
       <c r="AE252" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF252" s="1">
@@ -12786,7 +12845,7 @@
         <v>288</v>
       </c>
       <c r="AE253" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF253" s="1">
@@ -12812,7 +12871,7 @@
         <v>288</v>
       </c>
       <c r="AE254" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF254" s="1">
@@ -12838,7 +12897,7 @@
         <v>406</v>
       </c>
       <c r="AE255" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF255" s="1">
@@ -12864,7 +12923,7 @@
         <v>685</v>
       </c>
       <c r="AE256" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF256" s="1">
@@ -12890,7 +12949,7 @@
         <v>288</v>
       </c>
       <c r="AE257" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF257" s="1">
@@ -12916,7 +12975,7 @@
         <v>685</v>
       </c>
       <c r="AE258" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF258" s="1">
@@ -12942,7 +13001,7 @@
         <v>685</v>
       </c>
       <c r="AE259" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF259" s="1">
@@ -12968,7 +13027,7 @@
         <v>514</v>
       </c>
       <c r="AE260" s="1">
-        <f t="shared" ref="AE260:AE267" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA260,1),""))</f>
+        <f t="shared" ref="AE260:AE267" si="6">--ISNUMBER(IFERROR(SEARCH($X$1,AA260,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF260" s="1">
@@ -12994,7 +13053,7 @@
         <v>360</v>
       </c>
       <c r="AE261" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF261" s="1">
@@ -13020,7 +13079,7 @@
         <v>514</v>
       </c>
       <c r="AE262" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF262" s="1">
@@ -13046,7 +13105,7 @@
         <v>360</v>
       </c>
       <c r="AE263" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF263" s="1">
@@ -13072,7 +13131,7 @@
         <v>514</v>
       </c>
       <c r="AE264" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF264" s="1">
@@ -13098,7 +13157,7 @@
         <v>192</v>
       </c>
       <c r="AE265" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF265" s="1">
@@ -13124,7 +13183,7 @@
         <v>192</v>
       </c>
       <c r="AE266" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF266" s="1">
@@ -13150,7 +13209,7 @@
         <v>514</v>
       </c>
       <c r="AE267" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF267" s="1">
@@ -13163,7 +13222,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FRaq8yqr8I+H1eZZVII4cMGpJxFBsQYV6MAxqsPu6zfJYrADAZwWm5Hz4HYuarOeVLx6A2fE1m9OhQi5/8bdsQ==" saltValue="nhlhXWfHi5O0bCviDpCing==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dCM24WmMuJ8JF7lGOOo+yWY2vLPPCiT+V5uxRFk+WV5YV5J70reUwxxtj6UgTxEHwfreknpDfPbQaXi27t1s5Q==" saltValue="nRmLBxY/rkv08todz4Knww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="13">
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
@@ -13185,9 +13244,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{A7A196F9-DABF-4B9B-9E1E-CE3685CD54CA}">
-      <formula1>YEAR(TODAY())-20</formula1>
-      <formula2>YEAR(TODAY())-1</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{A7A196F9-DABF-4B9B-9E1E-CE3685CD54CA}">
+      <formula1>$W$18:$W$37</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
